--- a/exam2/Chiu_exam2_code.xlsx
+++ b/exam2/Chiu_exam2_code.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Q2" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhUNYzWmG++nIkP7XYhWGc5jO7sCA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjLCprofhpSSj6kvAUBhSa6FXrIcg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>question</t>
   </si>
@@ -41,12 +41,15 @@
   <si>
     <t>2d</t>
   </si>
+  <si>
+    <t>2e</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -56,7 +59,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -72,14 +74,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -337,7 +336,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
@@ -362,7 +361,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
@@ -370,7 +369,15 @@
         <v>222.252881</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <f>NORMINV(0.97, 367, 88)</f>
+        <v>532.5098373</v>
+      </c>
+    </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="15.75" customHeight="1"/>
